--- a/ATMP Sheets/GTMP/FCTX-CL19-1.xlsx
+++ b/ATMP Sheets/GTMP/FCTX-CL19-1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
   <si>
     <t>ATMP Cover Sheet</t>
   </si>
@@ -91,6 +91,9 @@
     <t>Phase 1/2</t>
   </si>
   <si>
+    <t>Trial Status</t>
+  </si>
+  <si>
     <t>Regulatory Information</t>
   </si>
   <si>
@@ -107,9 +110,6 @@
   </si>
   <si>
     <t>Phase</t>
-  </si>
-  <si>
-    <t>Trial Status</t>
   </si>
   <si>
     <t>ongoing (19.09.2024)</t>
@@ -249,12 +249,21 @@
   <si>
     <t>Expert statement: what was the biggest hurdle experienced?</t>
   </si>
+  <si>
+    <t>Status Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status </t>
+  </si>
+  <si>
+    <t>in Progress</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -277,7 +286,21 @@
       <name val="Aptos Narrow"/>
     </font>
     <font>
+      <sz val="13.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -320,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -339,6 +362,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -351,13 +377,22 @@
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -998,7 +1033,9 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="2"/>
+      <c r="A14" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1026,9 +1063,7 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1056,12 +1091,10 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1088,11 +1121,11 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1120,11 +1153,11 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1152,11 +1185,11 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1184,11 +1217,11 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>34</v>
+      <c r="A20" s="7" t="s">
+        <v>26</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>35</v>
+      <c r="B20" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1216,11 +1249,11 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="s">
-        <v>36</v>
+      <c r="A21" s="7" t="s">
+        <v>34</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>37</v>
+      <c r="B21" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1248,11 +1281,11 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="s">
-        <v>38</v>
+      <c r="A22" s="7" t="s">
+        <v>36</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>39</v>
+      <c r="B22" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1280,11 +1313,11 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="s">
-        <v>40</v>
+      <c r="A23" s="7" t="s">
+        <v>38</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>41</v>
+      <c r="B23" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1312,16 +1345,14 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="s">
-        <v>42</v>
+      <c r="A24" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1346,14 +1377,16 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="s">
-        <v>44</v>
+      <c r="A25" s="7" t="s">
+        <v>42</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1378,11 +1411,11 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="s">
-        <v>45</v>
+      <c r="A26" s="7" t="s">
+        <v>44</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>41</v>
+      <c r="B26" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1410,11 +1443,11 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="s">
-        <v>46</v>
+      <c r="A27" s="7" t="s">
+        <v>45</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>47</v>
+      <c r="B27" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1442,11 +1475,11 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="s">
-        <v>48</v>
+      <c r="A28" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1474,11 +1507,11 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="s">
-        <v>49</v>
+      <c r="A29" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1506,11 +1539,11 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="s">
-        <v>51</v>
+      <c r="A30" s="7" t="s">
+        <v>49</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>37</v>
+      <c r="B30" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1538,11 +1571,11 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="10" t="s">
-        <v>52</v>
+      <c r="A31" s="7" t="s">
+        <v>51</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>53</v>
+      <c r="B31" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1570,10 +1603,10 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="s">
-        <v>54</v>
+      <c r="A32" s="11" t="s">
+        <v>52</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C32" s="2"/>
@@ -1602,10 +1635,12 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="12" t="s">
-        <v>55</v>
+      <c r="A33" s="7" t="s">
+        <v>54</v>
       </c>
-      <c r="B33" s="11"/>
+      <c r="B33" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1632,10 +1667,10 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="12" t="s">
-        <v>56</v>
+      <c r="A34" s="13" t="s">
+        <v>55</v>
       </c>
-      <c r="B34" s="11"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1662,8 +1697,10 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="12"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1690,9 +1727,7 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1720,8 +1755,8 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="s">
-        <v>58</v>
+      <c r="A37" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1750,8 +1785,8 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="s">
-        <v>59</v>
+      <c r="A38" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1780,8 +1815,8 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="s">
-        <v>60</v>
+      <c r="A39" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1810,8 +1845,8 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="s">
-        <v>61</v>
+      <c r="A40" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1840,8 +1875,8 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="s">
-        <v>62</v>
+      <c r="A41" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1870,8 +1905,8 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="s">
-        <v>63</v>
+      <c r="A42" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1900,8 +1935,8 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="s">
-        <v>64</v>
+      <c r="A43" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1930,8 +1965,8 @@
       <c r="Z43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="s">
-        <v>65</v>
+      <c r="A44" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1960,8 +1995,8 @@
       <c r="Z44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="s">
-        <v>66</v>
+      <c r="A45" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1990,8 +2025,8 @@
       <c r="Z45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="s">
-        <v>67</v>
+      <c r="A46" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2020,8 +2055,8 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="s">
-        <v>68</v>
+      <c r="A47" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2050,8 +2085,8 @@
       <c r="Z47" s="2"/>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="s">
-        <v>69</v>
+      <c r="A48" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2080,8 +2115,8 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="s">
-        <v>70</v>
+      <c r="A49" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2110,8 +2145,8 @@
       <c r="Z49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="s">
-        <v>71</v>
+      <c r="A50" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2140,8 +2175,8 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="s">
-        <v>72</v>
+      <c r="A51" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2170,8 +2205,8 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="s">
-        <v>73</v>
+      <c r="A52" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2200,8 +2235,8 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="s">
-        <v>74</v>
+      <c r="A53" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2230,8 +2265,8 @@
       <c r="Z53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="s">
-        <v>75</v>
+      <c r="A54" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2260,8 +2295,8 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="s">
-        <v>76</v>
+      <c r="A55" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2290,8 +2325,8 @@
       <c r="Z55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="s">
-        <v>77</v>
+      <c r="A56" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2320,8 +2355,8 @@
       <c r="Z56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="s">
-        <v>78</v>
+      <c r="A57" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2350,7 +2385,9 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="2"/>
+      <c r="A58" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2406,11 +2443,13 @@
       <c r="Z59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="A60" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -2434,11 +2473,15 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="A61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -28837,6 +28880,34 @@
       <c r="Y1003" s="2"/>
       <c r="Z1003" s="2"/>
     </row>
+    <row r="1004">
+      <c r="A1004" s="2"/>
+      <c r="B1004" s="2"/>
+      <c r="C1004" s="2"/>
+      <c r="D1004" s="2"/>
+      <c r="E1004" s="2"/>
+      <c r="F1004" s="2"/>
+      <c r="G1004" s="2"/>
+      <c r="H1004" s="2"/>
+      <c r="I1004" s="2"/>
+      <c r="J1004" s="2"/>
+      <c r="K1004" s="2"/>
+      <c r="L1004" s="2"/>
+      <c r="M1004" s="2"/>
+      <c r="N1004" s="2"/>
+      <c r="O1004" s="2"/>
+      <c r="P1004" s="2"/>
+      <c r="Q1004" s="2"/>
+      <c r="R1004" s="2"/>
+      <c r="S1004" s="2"/>
+      <c r="T1004" s="2"/>
+      <c r="U1004" s="2"/>
+      <c r="V1004" s="2"/>
+      <c r="W1004" s="2"/>
+      <c r="X1004" s="2"/>
+      <c r="Y1004" s="2"/>
+      <c r="Z1004" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
